--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="560" windowWidth="25040" windowHeight="13680"/>
+    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -743,9 +743,6 @@
     <t>Recurso M102AB-01</t>
   </si>
   <si>
-    <t>La estructura de un análisis literario</t>
-  </si>
-  <si>
     <t>Reemplazar oraciones del "castellano español" (el mono...) al "colombiano". Revisar Fichas y corregirlas. Observar que cambia el titulo y la descripción.</t>
   </si>
   <si>
@@ -940,6 +937,9 @@
   </si>
   <si>
     <t>Actividades para repasar los contenidos del tema El análisis literario</t>
+  </si>
+  <si>
+    <t>Proyecto: la estructura de un análisis literario</t>
   </si>
 </sst>
 </file>
@@ -2625,7 +2625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2635,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+    <sheetView tabSelected="1" topLeftCell="K21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2771,7 +2771,7 @@
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
       <c r="G3" s="23" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H3" s="24">
         <v>1</v>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="N3" s="11"/>
       <c r="O3" s="28" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>19</v>
@@ -2830,7 +2830,7 @@
       <c r="E4" s="32"/>
       <c r="F4" s="33"/>
       <c r="G4" s="23" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H4" s="10">
         <v>2</v>
@@ -2852,7 +2852,7 @@
       </c>
       <c r="N4" s="11"/>
       <c r="O4" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="P4" s="11" t="s">
         <v>19</v>
@@ -2889,7 +2889,7 @@
       <c r="E5" s="32"/>
       <c r="F5" s="33"/>
       <c r="G5" s="23" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H5" s="24">
         <v>3</v>
@@ -2898,7 +2898,7 @@
         <v>92</v>
       </c>
       <c r="J5" s="25" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="K5" s="26" t="s">
         <v>69</v>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="N5" s="11"/>
       <c r="O5" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P5" s="11" t="s">
         <v>19</v>
@@ -2948,7 +2948,7 @@
       <c r="E6" s="32"/>
       <c r="F6" s="33"/>
       <c r="G6" s="23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H6" s="24">
         <v>4</v>
@@ -2970,7 +2970,7 @@
       </c>
       <c r="N6" s="11"/>
       <c r="O6" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>19</v>
@@ -3029,7 +3029,7 @@
       <c r="M7" s="40"/>
       <c r="N7" s="40"/>
       <c r="O7" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>19</v>
@@ -3090,7 +3090,7 @@
       <c r="M8" s="40"/>
       <c r="N8" s="40"/>
       <c r="O8" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="P8" s="11" t="s">
         <v>19</v>
@@ -3151,7 +3151,7 @@
       <c r="M9" s="40"/>
       <c r="N9" s="40"/>
       <c r="O9" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="P9" s="11" t="s">
         <v>19</v>
@@ -3212,7 +3212,7 @@
       <c r="M10" s="40"/>
       <c r="N10" s="40"/>
       <c r="O10" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="P10" s="11" t="s">
         <v>19</v>
@@ -3273,7 +3273,7 @@
       <c r="M11" s="40"/>
       <c r="N11" s="40"/>
       <c r="O11" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>19</v>
@@ -3334,7 +3334,7 @@
       <c r="M12" s="40"/>
       <c r="N12" s="40"/>
       <c r="O12" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P12" s="11" t="s">
         <v>19</v>
@@ -3395,7 +3395,7 @@
       <c r="M13" s="40"/>
       <c r="N13" s="40"/>
       <c r="O13" s="27" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P13" s="11" t="s">
         <v>19</v>
@@ -3456,7 +3456,7 @@
       <c r="M14" s="40"/>
       <c r="N14" s="40"/>
       <c r="O14" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P14" s="11" t="s">
         <v>19</v>
@@ -3515,7 +3515,7 @@
       <c r="M15" s="40"/>
       <c r="N15" s="40"/>
       <c r="O15" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>19</v>
@@ -3574,7 +3574,7 @@
       <c r="M16" s="40"/>
       <c r="N16" s="40"/>
       <c r="O16" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P16" s="11" t="s">
         <v>20</v>
@@ -3696,7 +3696,7 @@
       </c>
       <c r="N18" s="40"/>
       <c r="O18" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P18" s="11" t="s">
         <v>19</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="F19" s="33"/>
       <c r="G19" s="23" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H19" s="10">
         <v>17</v>
@@ -3755,7 +3755,7 @@
       <c r="M19" s="40"/>
       <c r="N19" s="40"/>
       <c r="O19" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>19</v>
@@ -3781,7 +3781,7 @@
         <v>68</v>
       </c>
       <c r="B20" s="59" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C20" s="60" t="s">
         <v>91</v>
@@ -3794,16 +3794,16 @@
       </c>
       <c r="F20" s="55"/>
       <c r="G20" s="61" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H20" s="62">
         <v>18</v>
       </c>
       <c r="I20" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="63" t="s">
         <v>228</v>
-      </c>
-      <c r="J20" s="63" t="s">
-        <v>229</v>
       </c>
       <c r="K20" s="64" t="s">
         <v>69</v>
@@ -3816,7 +3816,7 @@
       </c>
       <c r="N20" s="67"/>
       <c r="O20" s="65" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P20" s="66" t="s">
         <v>19</v>
@@ -3831,7 +3831,7 @@
         <v>94</v>
       </c>
       <c r="T20" s="68" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="U20" s="69" t="s">
         <v>96</v>
@@ -3875,7 +3875,7 @@
         <v>45</v>
       </c>
       <c r="O21" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P21" s="11" t="s">
         <v>19</v>
@@ -3932,7 +3932,7 @@
       <c r="M22" s="40"/>
       <c r="N22" s="40"/>
       <c r="O22" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P22" s="11" t="s">
         <v>19</v>
@@ -3971,7 +3971,7 @@
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="23" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H23" s="10">
         <v>21</v>
@@ -3993,7 +3993,7 @@
       </c>
       <c r="N23" s="40"/>
       <c r="O23" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P23" s="11" t="s">
         <v>19</v>
@@ -4028,7 +4028,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="23" t="s">
@@ -4054,7 +4054,7 @@
         <v>41</v>
       </c>
       <c r="O24" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>19</v>
@@ -4093,7 +4093,7 @@
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="23" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H25" s="10">
         <v>23</v>
@@ -4102,7 +4102,7 @@
         <v>92</v>
       </c>
       <c r="J25" s="43" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K25" s="26" t="s">
         <v>69</v>
@@ -4115,7 +4115,7 @@
       </c>
       <c r="N25" s="40"/>
       <c r="O25" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P25" s="11" t="s">
         <v>19</v>
@@ -4144,7 +4144,7 @@
         <v>90</v>
       </c>
       <c r="C26" s="60" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="53" t="s">
         <v>168</v>
@@ -4154,7 +4154,7 @@
       </c>
       <c r="F26" s="55"/>
       <c r="G26" s="61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H26" s="62">
         <v>24</v>
@@ -4163,7 +4163,7 @@
         <v>92</v>
       </c>
       <c r="J26" s="71" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K26" s="72" t="s">
         <v>69</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="N26" s="73"/>
       <c r="O26" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P26" s="66" t="s">
         <v>19</v>
@@ -4185,13 +4185,13 @@
         <v>6</v>
       </c>
       <c r="R26" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="S26" s="74" t="s">
         <v>94</v>
       </c>
       <c r="T26" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="U26" s="75" t="s">
         <v>96</v>
@@ -4224,7 +4224,7 @@
         <v>107</v>
       </c>
       <c r="J27" s="50" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="K27" s="51" t="s">
         <v>69</v>
@@ -4237,7 +4237,7 @@
         <v>46</v>
       </c>
       <c r="O27" s="52" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P27" s="14" t="s">
         <v>19</v>
@@ -4252,7 +4252,7 @@
         <v>141</v>
       </c>
       <c r="T27" s="5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="U27" s="37" t="s">
         <v>142</v>
@@ -4296,7 +4296,7 @@
       <c r="M28" s="40"/>
       <c r="N28" s="40"/>
       <c r="O28" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>19</v>
@@ -4325,17 +4325,17 @@
         <v>90</v>
       </c>
       <c r="C29" s="78" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D29" s="79" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E29" s="54" t="s">
         <v>135</v>
       </c>
       <c r="F29" s="55"/>
       <c r="G29" s="61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H29" s="62">
         <v>27</v>
@@ -4344,7 +4344,7 @@
         <v>92</v>
       </c>
       <c r="J29" s="63" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K29" s="72" t="s">
         <v>69</v>
@@ -4357,7 +4357,7 @@
       </c>
       <c r="N29" s="67"/>
       <c r="O29" s="67" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P29" s="66" t="s">
         <v>19</v>
@@ -4372,7 +4372,7 @@
         <v>94</v>
       </c>
       <c r="T29" s="81" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="U29" s="82" t="s">
         <v>96</v>
@@ -4396,7 +4396,7 @@
       </c>
       <c r="F30" s="33"/>
       <c r="G30" s="23" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H30" s="10">
         <v>28</v>
@@ -4418,7 +4418,7 @@
       </c>
       <c r="N30" s="40"/>
       <c r="O30" s="40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P30" s="11" t="s">
         <v>19</v>
@@ -4514,7 +4514,7 @@
       <c r="E32" s="32"/>
       <c r="F32" s="33"/>
       <c r="G32" s="23" t="s">
-        <v>198</v>
+        <v>259</v>
       </c>
       <c r="H32" s="10">
         <v>30</v>
@@ -4536,7 +4536,7 @@
       </c>
       <c r="N32" s="40"/>
       <c r="O32" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>19</v>
@@ -4666,13 +4666,13 @@
         <v>68</v>
       </c>
       <c r="B35" s="84" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="D35" s="53" t="s">
         <v>256</v>
-      </c>
-      <c r="D35" s="53" t="s">
-        <v>257</v>
       </c>
       <c r="E35" s="54"/>
       <c r="F35" s="55"/>
@@ -4684,7 +4684,7 @@
         <v>92</v>
       </c>
       <c r="J35" s="85" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K35" s="86" t="s">
         <v>69</v>
@@ -4697,7 +4697,7 @@
       </c>
       <c r="N35" s="40"/>
       <c r="O35" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P35" s="11" t="s">
         <v>20</v>
@@ -4712,7 +4712,7 @@
         <v>94</v>
       </c>
       <c r="T35" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U35" s="36" t="s">
         <v>96</v>
@@ -5717,11 +5717,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5737,9 +5732,13 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">

--- a/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO_version2.xlsx
+++ b/fuentes/contenidos/grado10/guion01/Escaleta_LE_10_01_CO_version2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="1120" windowWidth="24480" windowHeight="13120"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2625,7 +2625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2635,8 +2635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3577,7 +3577,7 @@
         <v>213</v>
       </c>
       <c r="P16" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" s="36" t="s">
         <v>106</v>
@@ -5717,6 +5717,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="M1:N1"/>
@@ -5732,11 +5737,6 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
